--- a/ky/downloads/data-excel/3.3.1.xlsx
+++ b/ky/downloads/data-excel/3.3.1.xlsx
@@ -136,9 +136,6 @@
     <t>3.3.1 Number of new HIV infections per 1,000 uninfected population, by sex, age and key populations</t>
   </si>
   <si>
-    <t>3.3.1. Число новых заражений ВИЧ на 1000 неинфицированных в разбивке по полу, возрасту и территории</t>
-  </si>
-  <si>
     <t>0-14 лет</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>3.3.1 Число новых заражений ВИЧ на 1000 неинфицированных в разбивке по полу, возрасту и территории</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -455,19 +455,16 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -784,9 +781,7 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -806,12 +801,12 @@
     <col min="15" max="15" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>39</v>
@@ -828,14 +823,14 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -893,8 +888,11 @@
       <c r="S3" s="12">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
@@ -940,20 +938,23 @@
       <c r="O4" s="19">
         <v>0.12969973719986175</v>
       </c>
-      <c r="P4" s="36">
+      <c r="P4" s="35">
         <v>0.1</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="35">
         <v>0.1</v>
       </c>
-      <c r="R4" s="36">
+      <c r="R4" s="35">
         <v>0.12641839647678207</v>
       </c>
-      <c r="S4" s="36">
+      <c r="S4" s="35">
         <v>0.15686557910355481</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -1011,8 +1012,11 @@
       <c r="S5" s="34">
         <v>0.18747863920572591</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -1058,20 +1062,23 @@
       <c r="O6" s="24">
         <v>0.16234926078458389</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="36">
         <v>0.2</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="36">
         <v>0.1</v>
       </c>
-      <c r="R6" s="37">
+      <c r="R6" s="36">
         <v>0.10326895933792253</v>
       </c>
-      <c r="S6" s="37">
+      <c r="S6" s="36">
         <v>0.12556588018347117</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
@@ -1117,20 +1124,23 @@
       <c r="O7" s="19">
         <v>4.0436093642290762E-2</v>
       </c>
-      <c r="P7" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="39">
-        <v>0</v>
-      </c>
-      <c r="R7" s="39">
+      <c r="P7" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="38">
+        <v>0</v>
+      </c>
+      <c r="R7" s="38">
         <v>3.433011112114915E-2</v>
       </c>
-      <c r="S7" s="39">
+      <c r="S7" s="38">
         <v>5.1313356512815066E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="38">
+        <v>5.1313356512815066E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -1176,20 +1186,23 @@
       <c r="O8" s="15">
         <v>3.5312119904264916E-2</v>
       </c>
-      <c r="P8" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="37">
-        <v>0</v>
-      </c>
-      <c r="R8" s="37">
+      <c r="P8" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="36">
+        <v>0</v>
+      </c>
+      <c r="R8" s="36">
         <v>3.6820478077087354E-2</v>
       </c>
-      <c r="S8" s="37">
+      <c r="S8" s="36">
         <v>6.0745743331368028E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -1235,20 +1248,23 @@
       <c r="O9" s="24">
         <v>4.5374109533100414E-2</v>
       </c>
-      <c r="P9" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="37">
-        <v>0</v>
-      </c>
-      <c r="R9" s="37">
+      <c r="P9" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="36">
+        <v>0</v>
+      </c>
+      <c r="R9" s="36">
         <v>3.1930519190242035E-2</v>
       </c>
-      <c r="S9" s="37">
+      <c r="S9" s="36">
         <v>4.2060988433228183E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
@@ -1294,20 +1310,23 @@
       <c r="O10" s="19">
         <v>6.1541941664892491E-2</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="38">
         <v>0.1</v>
       </c>
-      <c r="Q10" s="39">
-        <v>0</v>
-      </c>
-      <c r="R10" s="39">
+      <c r="Q10" s="38">
+        <v>0</v>
+      </c>
+      <c r="R10" s="38">
         <v>8.7302929367211068E-2</v>
       </c>
-      <c r="S10" s="39">
+      <c r="S10" s="38">
         <v>9.2022006630303563E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="38">
+        <v>9.2808519507485643E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -1353,20 +1372,23 @@
       <c r="O11" s="15">
         <v>6.1918053965767689E-2</v>
       </c>
-      <c r="P11" s="37">
+      <c r="P11" s="36">
         <v>0.1</v>
       </c>
-      <c r="Q11" s="37">
-        <v>0</v>
-      </c>
-      <c r="R11" s="37">
+      <c r="Q11" s="36">
+        <v>0</v>
+      </c>
+      <c r="R11" s="36">
         <v>0.10296328329317765</v>
       </c>
-      <c r="S11" s="37">
+      <c r="S11" s="36">
         <v>7.8942235953699605E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="36">
+        <v>0.10511425919975013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -1412,20 +1434,23 @@
       <c r="O12" s="24">
         <v>6.1170371056164324E-2</v>
       </c>
-      <c r="P12" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="37">
-        <v>0</v>
-      </c>
-      <c r="R12" s="37">
+      <c r="P12" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="36">
+        <v>0</v>
+      </c>
+      <c r="R12" s="36">
         <v>7.1859056271889668E-2</v>
       </c>
-      <c r="S12" s="37">
+      <c r="S12" s="36">
         <v>0.10098382728705417</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="36">
+        <v>7.3018905811696413E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
@@ -1471,20 +1496,23 @@
       <c r="O13" s="19">
         <v>5.757218112208181E-2</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="35">
         <v>0.1</v>
       </c>
-      <c r="Q13" s="36">
-        <v>0</v>
-      </c>
-      <c r="R13" s="36">
+      <c r="Q13" s="35">
+        <v>0</v>
+      </c>
+      <c r="R13" s="35">
         <v>0.10716050460690947</v>
       </c>
-      <c r="S13" s="36">
+      <c r="S13" s="35">
         <v>9.7010038673425045E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" s="35">
+        <v>0.13486027182658078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -1504,7 +1532,7 @@
         <v>1.3496551631058265E-2</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="20">
         <v>3.5536918416119549E-2</v>
@@ -1530,20 +1558,23 @@
       <c r="O14" s="15">
         <v>2.047242160086148E-2</v>
       </c>
-      <c r="P14" s="37">
+      <c r="P14" s="36">
         <v>0.1</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="36">
         <v>0.1</v>
       </c>
-      <c r="R14" s="37">
+      <c r="R14" s="36">
         <v>7.9035451351703812E-2</v>
       </c>
-      <c r="S14" s="37">
+      <c r="S14" s="36">
         <v>0.12657756598786343</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="36">
+        <v>0.10706756701875898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -1589,20 +1620,23 @@
       <c r="O15" s="24">
         <v>9.4996179501476569E-2</v>
       </c>
-      <c r="P15" s="37">
+      <c r="P15" s="36">
         <v>0.1</v>
       </c>
-      <c r="Q15" s="37">
-        <v>0</v>
-      </c>
-      <c r="R15" s="37">
+      <c r="Q15" s="36">
+        <v>0</v>
+      </c>
+      <c r="R15" s="36">
         <v>0.13553052227085377</v>
       </c>
-      <c r="S15" s="37">
+      <c r="S15" s="36">
         <v>6.7310604785784003E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
@@ -1613,7 +1647,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="21">
         <v>3.8892951041553233E-3</v>
@@ -1648,17 +1682,20 @@
       <c r="O16" s="19">
         <v>2.10189275442536E-2</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16" s="35">
         <v>0.1</v>
       </c>
-      <c r="Q16" s="36">
-        <v>0</v>
-      </c>
-      <c r="R16" s="36">
+      <c r="Q16" s="35">
+        <v>0</v>
+      </c>
+      <c r="R16" s="35">
         <v>6.479643687803946E-2</v>
       </c>
-      <c r="S16" s="36">
+      <c r="S16" s="35">
         <v>0.12618253497302423</v>
+      </c>
+      <c r="T16" s="35">
+        <v>8.1848130793313004E-2</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1672,10 +1709,10 @@
         <v>37</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="20">
         <v>7.6543304374449847E-3</v>
@@ -1707,17 +1744,20 @@
       <c r="O17" s="15">
         <v>6.8841128443777452E-3</v>
       </c>
-      <c r="P17" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="37">
-        <v>0</v>
-      </c>
-      <c r="R17" s="37">
+      <c r="P17" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="36">
+        <v>0</v>
+      </c>
+      <c r="R17" s="36">
         <v>7.643825526207898E-2</v>
       </c>
-      <c r="S17" s="37">
+      <c r="S17" s="36">
         <v>0.15767275020694549</v>
+      </c>
+      <c r="T17" s="36">
+        <v>9.5644356026550872E-2</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -1730,8 +1770,8 @@
       <c r="C18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>54</v>
+      <c r="D18" s="41" t="s">
+        <v>53</v>
       </c>
       <c r="E18" s="24">
         <v>7.7015495517698167E-3</v>
@@ -1766,17 +1806,20 @@
       <c r="O18" s="24">
         <v>6.8841128443777452E-3</v>
       </c>
-      <c r="P18" s="37">
+      <c r="P18" s="36">
         <v>0.1</v>
       </c>
-      <c r="Q18" s="37">
-        <v>0</v>
-      </c>
-      <c r="R18" s="37">
+      <c r="Q18" s="36">
+        <v>0</v>
+      </c>
+      <c r="R18" s="36">
         <v>5.3576570965516782E-2</v>
       </c>
-      <c r="S18" s="37">
+      <c r="S18" s="36">
         <v>8.3781780685077176E-2</v>
+      </c>
+      <c r="T18" s="36">
+        <v>5.8688124783995099E-2</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -1825,17 +1868,20 @@
       <c r="O19" s="19">
         <v>6.8531630736511695E-2</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19" s="35">
         <v>0.1</v>
       </c>
-      <c r="Q19" s="36">
-        <v>0</v>
-      </c>
-      <c r="R19" s="36">
+      <c r="Q19" s="35">
+        <v>0</v>
+      </c>
+      <c r="R19" s="35">
         <v>5.4163459619715498E-2</v>
       </c>
-      <c r="S19" s="36">
+      <c r="S19" s="35">
         <v>8.9790167285988584E-2</v>
+      </c>
+      <c r="T19" s="35">
+        <v>9.1518908823439687E-2</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -1884,17 +1930,20 @@
       <c r="O20" s="15">
         <v>5.7836723884436135E-2</v>
       </c>
-      <c r="P20" s="37">
+      <c r="P20" s="36">
         <v>0.1</v>
       </c>
-      <c r="Q20" s="37">
-        <v>0</v>
-      </c>
-      <c r="R20" s="37">
+      <c r="Q20" s="36">
+        <v>0</v>
+      </c>
+      <c r="R20" s="36">
         <v>6.4872252119520635E-2</v>
       </c>
-      <c r="S20" s="37">
+      <c r="S20" s="36">
         <v>0.11543537913568107</v>
+      </c>
+      <c r="T20" s="36">
+        <v>0.11305183426601097</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -1943,17 +1992,20 @@
       <c r="O21" s="24">
         <v>7.9006368211415073E-2</v>
       </c>
-      <c r="P21" s="37">
+      <c r="P21" s="36">
         <v>0.1</v>
       </c>
-      <c r="Q21" s="37">
-        <v>0</v>
-      </c>
-      <c r="R21" s="37">
+      <c r="Q21" s="36">
+        <v>0</v>
+      </c>
+      <c r="R21" s="36">
         <v>4.3693418784505472E-2</v>
       </c>
-      <c r="S21" s="37">
+      <c r="S21" s="36">
         <v>6.4489306438090949E-2</v>
+      </c>
+      <c r="T21" s="36">
+        <v>6.9664232061118755E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2002,17 +2054,20 @@
       <c r="O22" s="19">
         <v>5.7429237607727675E-2</v>
       </c>
-      <c r="P22" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="36">
-        <v>0</v>
-      </c>
-      <c r="R22" s="36">
+      <c r="P22" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="35">
+        <v>0</v>
+      </c>
+      <c r="R22" s="35">
         <v>5.1373884452794741E-2</v>
       </c>
-      <c r="S22" s="36">
+      <c r="S22" s="35">
         <v>7.7235413540471365E-2</v>
+      </c>
+      <c r="T22" s="35">
+        <v>7.2646437055494617E-2</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2061,17 +2116,20 @@
       <c r="O23" s="15">
         <v>4.6446099301760302E-2</v>
       </c>
-      <c r="P23" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="37">
-        <v>0</v>
-      </c>
-      <c r="R23" s="37">
+      <c r="P23" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="36">
+        <v>0</v>
+      </c>
+      <c r="R23" s="36">
         <v>2.9662368095156877E-2</v>
       </c>
-      <c r="S23" s="37">
+      <c r="S23" s="36">
         <v>0.1335826876836762</v>
+      </c>
+      <c r="T23" s="36">
+        <v>7.1977140060316844E-2</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2120,17 +2178,20 @@
       <c r="O24" s="24">
         <v>6.8177169738426927E-2</v>
       </c>
-      <c r="P24" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="37">
-        <v>0</v>
-      </c>
-      <c r="R24" s="37">
+      <c r="P24" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="36">
+        <v>0</v>
+      </c>
+      <c r="R24" s="36">
         <v>7.2642215296997686E-2</v>
       </c>
-      <c r="S24" s="37">
+      <c r="S24" s="36">
         <v>2.1874179718260566E-2</v>
+      </c>
+      <c r="T24" s="36">
+        <v>7.3328298123528854E-2</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2179,17 +2240,20 @@
       <c r="O25" s="19">
         <v>0.23517763428481836</v>
       </c>
-      <c r="P25" s="36">
+      <c r="P25" s="35">
         <v>0.2</v>
       </c>
-      <c r="Q25" s="36">
+      <c r="Q25" s="35">
         <v>0.1</v>
       </c>
-      <c r="R25" s="36">
+      <c r="R25" s="35">
         <v>0.13772601093442507</v>
       </c>
-      <c r="S25" s="36">
+      <c r="S25" s="35">
         <v>0.13849188927432132</v>
+      </c>
+      <c r="T25" s="35">
+        <v>0.11692151225912777</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2238,17 +2302,20 @@
       <c r="O26" s="15">
         <v>0.1776995523663657</v>
       </c>
-      <c r="P26" s="37">
+      <c r="P26" s="36">
         <v>0.2</v>
       </c>
-      <c r="Q26" s="37">
+      <c r="Q26" s="36">
         <v>0.2</v>
       </c>
-      <c r="R26" s="37">
+      <c r="R26" s="36">
         <v>0.15668565643254884</v>
       </c>
-      <c r="S26" s="37">
+      <c r="S26" s="36">
         <v>0.15541703258327452</v>
+      </c>
+      <c r="T26" s="36">
+        <v>9.2204309998266565E-2</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -2297,17 +2364,20 @@
       <c r="O27" s="24">
         <v>0.29443645952152986</v>
       </c>
-      <c r="P27" s="37">
+      <c r="P27" s="36">
         <v>0.3</v>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q27" s="36">
         <v>0.1</v>
       </c>
-      <c r="R27" s="37">
+      <c r="R27" s="36">
         <v>0.11816042869432726</v>
       </c>
-      <c r="S27" s="37">
+      <c r="S27" s="36">
         <v>0.12135301021830269</v>
+      </c>
+      <c r="T27" s="36">
+        <v>0.14195736796096919</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2356,17 +2426,20 @@
       <c r="O28" s="19">
         <v>0.31250677755235229</v>
       </c>
-      <c r="P28" s="36">
+      <c r="P28" s="35">
         <v>0.3</v>
       </c>
-      <c r="Q28" s="36">
+      <c r="Q28" s="35">
         <v>0.3</v>
       </c>
-      <c r="R28" s="36">
+      <c r="R28" s="35">
         <v>0.33417383115107696</v>
       </c>
-      <c r="S28" s="36">
+      <c r="S28" s="35">
         <v>0.4304881257025327</v>
+      </c>
+      <c r="T28" s="35">
+        <v>0.39313622256705832</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -2415,17 +2488,20 @@
       <c r="O29" s="15">
         <v>0.1927471472495538</v>
       </c>
-      <c r="P29" s="37">
+      <c r="P29" s="36">
         <v>0.3</v>
       </c>
-      <c r="Q29" s="37">
+      <c r="Q29" s="36">
         <v>0.4</v>
       </c>
-      <c r="R29" s="37">
+      <c r="R29" s="36">
         <v>0.41139191068108794</v>
       </c>
-      <c r="S29" s="37">
+      <c r="S29" s="36">
         <v>0.49554896622979544</v>
+      </c>
+      <c r="T29" s="36">
+        <v>0.26099583355742068</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -2474,17 +2550,20 @@
       <c r="O30" s="24">
         <v>0.44859954803069008</v>
       </c>
-      <c r="P30" s="37">
+      <c r="P30" s="36">
         <v>0.5</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="Q30" s="36">
         <v>0.2</v>
       </c>
-      <c r="R30" s="37">
+      <c r="R30" s="36">
         <v>0.24697746624641295</v>
       </c>
-      <c r="S30" s="37">
+      <c r="S30" s="36">
         <v>0.35193780867878632</v>
+      </c>
+      <c r="T30" s="36">
+        <v>0.6</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -2533,19 +2612,21 @@
       <c r="O31" s="19">
         <v>0.16661679497293325</v>
       </c>
-      <c r="P31" s="39">
+      <c r="P31" s="38">
         <v>0.2</v>
       </c>
-      <c r="Q31" s="39">
+      <c r="Q31" s="38">
         <v>0.2</v>
       </c>
-      <c r="R31" s="39">
+      <c r="R31" s="38">
         <v>0.16773611144997194</v>
       </c>
-      <c r="S31" s="39">
+      <c r="S31" s="38">
         <v>0.21076296192215821</v>
       </c>
-      <c r="T31" s="40"/>
+      <c r="T31" s="38">
+        <v>0.19508978251610865</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -2593,19 +2674,21 @@
       <c r="O32" s="15">
         <v>0.15157506260709108</v>
       </c>
-      <c r="P32" s="37">
+      <c r="P32" s="36">
         <v>0.1</v>
       </c>
-      <c r="Q32" s="37">
+      <c r="Q32" s="36">
         <v>0.2</v>
       </c>
-      <c r="R32" s="37">
+      <c r="R32" s="36">
         <v>0.1959922553363346</v>
       </c>
-      <c r="S32" s="37">
+      <c r="S32" s="36">
         <v>0.25905990040586052</v>
       </c>
-      <c r="T32" s="34"/>
+      <c r="T32" s="36">
+        <v>0.1687649778917879</v>
+      </c>
     </row>
     <row r="33" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
@@ -2653,29 +2736,31 @@
       <c r="O33" s="24">
         <v>0.18265096805013067</v>
       </c>
-      <c r="P33" s="38">
+      <c r="P33" s="37">
         <v>0.2</v>
       </c>
-      <c r="Q33" s="38">
+      <c r="Q33" s="37">
         <v>0.1</v>
       </c>
-      <c r="R33" s="38">
+      <c r="R33" s="37">
         <v>0.13791201213625709</v>
       </c>
-      <c r="S33" s="38">
+      <c r="S33" s="37">
         <v>0.1647039446594746</v>
       </c>
-      <c r="T33" s="35"/>
+      <c r="T33" s="37">
+        <v>0.22022527434160699</v>
+      </c>
     </row>
     <row r="34" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>50</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>51</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
@@ -2689,20 +2774,21 @@
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="20">
         <v>2.8574783002476688E-2</v>
@@ -2740,28 +2826,31 @@
       <c r="O35" s="15">
         <v>1.6559161989515129E-2</v>
       </c>
-      <c r="P35" s="41">
+      <c r="P35" s="39">
         <v>1.3237005751478998E-2</v>
       </c>
-      <c r="Q35" s="41">
-        <v>0</v>
-      </c>
-      <c r="R35" s="41">
-        <v>0</v>
-      </c>
-      <c r="S35" s="41">
+      <c r="Q35" s="39">
+        <v>0</v>
+      </c>
+      <c r="R35" s="39">
+        <v>0</v>
+      </c>
+      <c r="S35" s="39">
+        <v>0</v>
+      </c>
+      <c r="T35" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="24">
         <v>0.11669018515243708</v>
@@ -2799,28 +2888,31 @@
       <c r="O36" s="24">
         <v>0.21601828170764617</v>
       </c>
-      <c r="P36" s="41">
+      <c r="P36" s="39">
         <v>6.7974429961575017E-2</v>
       </c>
-      <c r="Q36" s="41">
+      <c r="Q36" s="39">
         <v>0.1</v>
       </c>
-      <c r="R36" s="41">
+      <c r="R36" s="39">
         <v>0.1</v>
       </c>
-      <c r="S36" s="41">
+      <c r="S36" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="T36" s="39">
         <v>0.1</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="32">
         <v>0.11669018515243708</v>
@@ -2858,16 +2950,19 @@
       <c r="O37" s="33">
         <v>0.21601828170764617</v>
       </c>
-      <c r="P37" s="42">
+      <c r="P37" s="40">
         <v>0.13623740240686077</v>
       </c>
-      <c r="Q37" s="42">
+      <c r="Q37" s="40">
         <v>0.2</v>
       </c>
-      <c r="R37" s="42">
+      <c r="R37" s="40">
         <v>0.2</v>
       </c>
-      <c r="S37" s="42">
+      <c r="S37" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="T37" s="40">
         <v>0.2</v>
       </c>
     </row>
